--- a/Code/Results/Cases/Case_4_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_210/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.098600126121624</v>
+        <v>0.3630829741045147</v>
       </c>
       <c r="C2">
-        <v>0.1817541358349217</v>
+        <v>0.07436217548442414</v>
       </c>
       <c r="D2">
-        <v>0.2002457884249225</v>
+        <v>0.07896829115506421</v>
       </c>
       <c r="E2">
-        <v>1.388661673315411</v>
+        <v>0.417430411203398</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3689523932000753</v>
+        <v>0.4730071219003236</v>
       </c>
       <c r="H2">
-        <v>0.2912809923135598</v>
+        <v>0.615445443545795</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.18330416737038</v>
+        <v>0.3611517495741055</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.341440939047061</v>
+        <v>2.135659816244896</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9558017504824647</v>
+        <v>0.3199292133546692</v>
       </c>
       <c r="C3">
-        <v>0.1647647460875703</v>
+        <v>0.06872356251116685</v>
       </c>
       <c r="D3">
-        <v>0.1736436906742966</v>
+        <v>0.07157345869859455</v>
       </c>
       <c r="E3">
-        <v>1.193246483521989</v>
+        <v>0.3642290642159907</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3484991929837093</v>
+        <v>0.4725992718885834</v>
       </c>
       <c r="H3">
-        <v>0.2888185489360851</v>
+        <v>0.6195510693863042</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.03468684643218</v>
+        <v>0.3150789838560968</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.292488454187321</v>
+        <v>2.143091536191079</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8683319218894496</v>
+        <v>0.2934177868623919</v>
       </c>
       <c r="C4">
-        <v>0.154335827587019</v>
+        <v>0.06523826926432719</v>
       </c>
       <c r="D4">
-        <v>0.1574665858462794</v>
+        <v>0.06706671304205258</v>
       </c>
       <c r="E4">
-        <v>1.075343615393649</v>
+        <v>0.3316472113900346</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3370734073175825</v>
+        <v>0.4727501874685984</v>
       </c>
       <c r="H4">
-        <v>0.2879772282615534</v>
+        <v>0.6223997372522518</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9435629969311492</v>
+        <v>0.2867111767695292</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.266226088876323</v>
+        <v>2.14918138829654</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8327230021462242</v>
+        <v>0.2826108945052965</v>
       </c>
       <c r="C5">
-        <v>0.1500848256516321</v>
+        <v>0.06381222610910697</v>
       </c>
       <c r="D5">
-        <v>0.1509087795256221</v>
+        <v>0.06523865918410365</v>
       </c>
       <c r="E5">
-        <v>1.027742210252313</v>
+        <v>0.3183893663237711</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3326826592364682</v>
+        <v>0.4729122734776752</v>
       </c>
       <c r="H5">
-        <v>0.2877945064872591</v>
+        <v>0.6236429589054353</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9064445904845968</v>
+        <v>0.275131698461621</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.256419095872005</v>
+        <v>2.152046125000766</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8268118579029533</v>
+        <v>0.2808162344049947</v>
       </c>
       <c r="C6">
-        <v>0.149378831840508</v>
+        <v>0.06357508694452463</v>
       </c>
       <c r="D6">
-        <v>0.1498218060757353</v>
+        <v>0.06493562464811475</v>
       </c>
       <c r="E6">
-        <v>1.019862723691162</v>
+        <v>0.3161890440252222</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3319690596415796</v>
+        <v>0.4729452531881009</v>
       </c>
       <c r="H6">
-        <v>0.2877735977117055</v>
+        <v>0.6238543678727595</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9002815622347953</v>
+        <v>0.2732077795866417</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.254843057578242</v>
+        <v>2.152544924433158</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8678515641838374</v>
+        <v>0.2932720539607487</v>
       </c>
       <c r="C7">
-        <v>0.1542785039445818</v>
+        <v>0.06521906037207259</v>
       </c>
       <c r="D7">
-        <v>0.157378011588861</v>
+        <v>0.0670420249207524</v>
       </c>
       <c r="E7">
-        <v>1.074699944099194</v>
+        <v>0.3314683344940335</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3370131425765521</v>
+        <v>0.4727519665891009</v>
       </c>
       <c r="H7">
-        <v>0.2879741265473399</v>
+        <v>0.622416170359493</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9430623645487799</v>
+        <v>0.2865550896443096</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.266090279397176</v>
+        <v>2.149218473215967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049309365907874</v>
+        <v>0.3482069005472965</v>
       </c>
       <c r="C8">
-        <v>0.1758945159013194</v>
+        <v>0.07242282701233194</v>
       </c>
       <c r="D8">
-        <v>0.1910378159096666</v>
+        <v>0.07641155650675557</v>
       </c>
       <c r="E8">
-        <v>1.320800737382058</v>
+        <v>0.3990681778041392</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3616529814133855</v>
+        <v>0.4727829957343914</v>
       </c>
       <c r="H8">
-        <v>0.2902874620300082</v>
+        <v>0.616792991875343</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.132023844438578</v>
+        <v>0.3452825197934715</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.323737824729307</v>
+        <v>2.137904886765</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.407640844752336</v>
+        <v>0.4558013648214683</v>
       </c>
       <c r="C9">
-        <v>0.2183951926071899</v>
+        <v>0.08636336574257086</v>
       </c>
       <c r="D9">
-        <v>0.258526787335299</v>
+        <v>0.09505346380970536</v>
       </c>
       <c r="E9">
-        <v>1.823859703704073</v>
+        <v>0.5323758305734856</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4199017605700277</v>
+        <v>0.4760440772631114</v>
       </c>
       <c r="H9">
-        <v>0.3005579014484567</v>
+        <v>0.6083699095820094</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.504430793776777</v>
+        <v>0.4598048714981928</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.469760025031974</v>
+        <v>2.127873202394539</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.673713108578113</v>
+        <v>0.5347582878139292</v>
       </c>
       <c r="C10">
-        <v>0.2498308921733496</v>
+        <v>0.09649005007750588</v>
       </c>
       <c r="D10">
-        <v>0.3093750142091949</v>
+        <v>0.1089157844950819</v>
       </c>
       <c r="E10">
-        <v>2.212048277206023</v>
+        <v>0.6308879885692988</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4701753759088518</v>
+        <v>0.4804139600839932</v>
       </c>
       <c r="H10">
-        <v>0.3122218059270665</v>
+        <v>0.6037735254232359</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.780466899902962</v>
+        <v>0.5435405329928358</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.601471187896294</v>
+        <v>2.127971385348189</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.795683340190976</v>
+        <v>0.5706557351390416</v>
       </c>
       <c r="C11">
-        <v>0.264213413050598</v>
+        <v>0.1010715211841386</v>
       </c>
       <c r="D11">
-        <v>0.3328691276934848</v>
+        <v>0.1152588159029051</v>
       </c>
       <c r="E11">
-        <v>2.394250191954683</v>
+        <v>0.6758536141595357</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4950204084425422</v>
+        <v>0.4828355917475875</v>
       </c>
       <c r="H11">
-        <v>0.3185753780196308</v>
+        <v>0.6020292518516044</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.906892410316971</v>
+        <v>0.5815442734934493</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.667758530844168</v>
+        <v>2.129650699848781</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.842033259140493</v>
+        <v>0.5842458832802322</v>
       </c>
       <c r="C12">
-        <v>0.2696748446905701</v>
+        <v>0.102802729498876</v>
       </c>
       <c r="D12">
-        <v>0.3418258217631802</v>
+        <v>0.1176660942419971</v>
       </c>
       <c r="E12">
-        <v>2.464202384976076</v>
+        <v>0.6929046983389213</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5047450440116563</v>
+        <v>0.4838153600685331</v>
       </c>
       <c r="H12">
-        <v>0.3211461353641027</v>
+        <v>0.6014186704977647</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.954918801752626</v>
+        <v>0.5959222861862656</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.69387447579274</v>
+        <v>2.130522673439941</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.832043269219895</v>
+        <v>0.58131916237366</v>
       </c>
       <c r="C13">
-        <v>0.2684979010816022</v>
+        <v>0.1024300482763891</v>
       </c>
       <c r="D13">
-        <v>0.3398940384665536</v>
+        <v>0.1171474077689538</v>
       </c>
       <c r="E13">
-        <v>2.449091817238923</v>
+        <v>0.6892313659905085</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5026360508733916</v>
+        <v>0.4836015526562534</v>
       </c>
       <c r="H13">
-        <v>0.3205849071277669</v>
+        <v>0.6015479477022723</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.944568217945317</v>
+        <v>0.5928263182657929</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.688203158642523</v>
+        <v>2.130324363934818</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.799493148188105</v>
+        <v>0.5717738764899707</v>
       </c>
       <c r="C14">
-        <v>0.2646624060821949</v>
+        <v>0.1012140231957375</v>
       </c>
       <c r="D14">
-        <v>0.3336047511572389</v>
+        <v>0.1154567577755472</v>
       </c>
       <c r="E14">
-        <v>2.399985113244625</v>
+        <v>0.6772559346362073</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4958139233159216</v>
+        <v>0.4829149381373554</v>
       </c>
       <c r="H14">
-        <v>0.3187834869841595</v>
+        <v>0.6019780176211356</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.910840352866273</v>
+        <v>0.5827274283395525</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.669886179202308</v>
+        <v>2.129717701078221</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.779577301728636</v>
+        <v>0.5659266511758574</v>
       </c>
       <c r="C15">
-        <v>0.2623151217245976</v>
+        <v>0.1004686894011257</v>
       </c>
       <c r="D15">
-        <v>0.3297604351696606</v>
+        <v>0.1144218770734682</v>
       </c>
       <c r="E15">
-        <v>2.370035125848389</v>
+        <v>0.6699237591827654</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4916773856948424</v>
+        <v>0.4825025498605839</v>
       </c>
       <c r="H15">
-        <v>0.3177019702081623</v>
+        <v>0.6022479538493428</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.890201734203458</v>
+        <v>0.5765398350100668</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.658801678601463</v>
+        <v>2.129376873224231</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.665763193385089</v>
+        <v>0.5324118512309326</v>
       </c>
       <c r="C16">
-        <v>0.2488928859200854</v>
+        <v>0.09619012686701467</v>
       </c>
       <c r="D16">
-        <v>0.3078475734711077</v>
+        <v>0.1085019960520128</v>
       </c>
       <c r="E16">
-        <v>2.200266227112763</v>
+        <v>0.6279525841367786</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4685941345803428</v>
+        <v>0.4802644610712292</v>
       </c>
       <c r="H16">
-        <v>0.3118288445908775</v>
+        <v>0.6038945008637739</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.772224303420046</v>
+        <v>0.5410550831640819</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.597275539376909</v>
+        <v>2.127894616357821</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.596200098957553</v>
+        <v>0.511846014943302</v>
       </c>
       <c r="C17">
-        <v>0.2406820520768065</v>
+        <v>0.09355886045817385</v>
       </c>
       <c r="D17">
-        <v>0.2945030480202604</v>
+        <v>0.1048798087435756</v>
       </c>
       <c r="E17">
-        <v>2.097656485279416</v>
+        <v>0.6022447701547549</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4549612603784396</v>
+        <v>0.4790028274480136</v>
       </c>
       <c r="H17">
-        <v>0.3085038386629861</v>
+        <v>0.6049934519980127</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.700087638729343</v>
+        <v>0.5192634184252825</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.561230017703707</v>
+        <v>2.127404678651146</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.556275178709086</v>
+        <v>0.5000151940395767</v>
       </c>
       <c r="C18">
-        <v>0.235966925534683</v>
+        <v>0.09204305703411819</v>
       </c>
       <c r="D18">
-        <v>0.2868612934976085</v>
+        <v>0.1027999048679504</v>
       </c>
       <c r="E18">
-        <v>2.039156434120784</v>
+        <v>0.587472513699268</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4473038080489431</v>
+        <v>0.4783179732380916</v>
       </c>
       <c r="H18">
-        <v>0.3066890649405849</v>
+        <v>0.6056581620089361</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.658675155389432</v>
+        <v>0.5067211740253583</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.541090872486365</v>
+        <v>2.127276680936063</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.542771226485343</v>
+        <v>0.4960091709081382</v>
       </c>
       <c r="C19">
-        <v>0.2343716642873233</v>
+        <v>0.09152942739541459</v>
       </c>
       <c r="D19">
-        <v>0.2842794819826509</v>
+        <v>0.1020962835524131</v>
       </c>
       <c r="E19">
-        <v>2.019434105404841</v>
+        <v>0.5824732676390596</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.44474176234975</v>
+        <v>0.4780930900571434</v>
       </c>
       <c r="H19">
-        <v>0.3060909812450774</v>
+        <v>0.6058888215946467</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.644666271379151</v>
+        <v>0.5024731836701903</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.534371161460285</v>
+        <v>2.127259728469824</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.603596118979993</v>
+        <v>0.5140354831351885</v>
       </c>
       <c r="C20">
-        <v>0.241555307819965</v>
+        <v>0.09383920891168884</v>
       </c>
       <c r="D20">
-        <v>0.2959200572054641</v>
+        <v>0.1052650364131011</v>
       </c>
       <c r="E20">
-        <v>2.10852479821699</v>
+        <v>0.6049799289325648</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4563932546279403</v>
+        <v>0.4791329047051676</v>
       </c>
       <c r="H20">
-        <v>0.3088475833160089</v>
+        <v>0.6048730898257872</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.707758373599603</v>
+        <v>0.5215840365069937</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.565005040979116</v>
+        <v>2.127440908283091</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.809049259575772</v>
+        <v>0.5745776555123143</v>
       </c>
       <c r="C21">
-        <v>0.265788546826883</v>
+        <v>0.1015713000860927</v>
       </c>
       <c r="D21">
-        <v>0.3354503739730745</v>
+        <v>0.1159531986243394</v>
       </c>
       <c r="E21">
-        <v>2.414381705734257</v>
+        <v>0.6807727553818381</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4978088883040073</v>
+        <v>0.483114907475553</v>
       </c>
       <c r="H21">
-        <v>0.3193080155160288</v>
+        <v>0.6018503396572612</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.920742680692172</v>
+        <v>0.5856940789072951</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.675237960082853</v>
+        <v>2.129889478310474</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.94428679849949</v>
+        <v>0.6141252102490853</v>
       </c>
       <c r="C22">
-        <v>0.2817160690527913</v>
+        <v>0.1066030972092591</v>
       </c>
       <c r="D22">
-        <v>0.3616394615520022</v>
+        <v>0.1229694767439042</v>
       </c>
       <c r="E22">
-        <v>2.619934383864376</v>
+        <v>0.7304459901275067</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5267377505077917</v>
+        <v>0.48608330043065</v>
       </c>
       <c r="H22">
-        <v>0.3271126761146235</v>
+        <v>0.6001659122755143</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.060840545543812</v>
+        <v>0.6275166423982341</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.753246782290006</v>
+        <v>2.132866124336061</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.872009848767647</v>
+        <v>0.5930199517223116</v>
       </c>
       <c r="C23">
-        <v>0.2732058697762909</v>
+        <v>0.1039195292049726</v>
       </c>
       <c r="D23">
-        <v>0.3476267333855958</v>
+        <v>0.1192219286517258</v>
       </c>
       <c r="E23">
-        <v>2.509654971310837</v>
+        <v>0.7039212260471004</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5111160333548099</v>
+        <v>0.4844654067442065</v>
       </c>
       <c r="H23">
-        <v>0.3228535485720982</v>
+        <v>0.6010382558783789</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.985975004029086</v>
+        <v>0.60520237425294</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.711031170252795</v>
+        <v>2.131151166190875</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.600252169161337</v>
+        <v>0.5130456471055993</v>
       </c>
       <c r="C24">
-        <v>0.2411604923474471</v>
+        <v>0.09371247288144957</v>
       </c>
       <c r="D24">
-        <v>0.295279333895067</v>
+        <v>0.1050908670735708</v>
       </c>
       <c r="E24">
-        <v>2.103609713563628</v>
+        <v>0.6037433404252397</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.455745290934999</v>
+        <v>0.4790739707222684</v>
       </c>
       <c r="H24">
-        <v>0.3086918758497319</v>
+        <v>0.604927403057971</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.70429025009804</v>
+        <v>0.5205349284145484</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.563296541525972</v>
+        <v>2.127424050237522</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.310309638107555</v>
+        <v>0.4267096537429893</v>
       </c>
       <c r="C25">
-        <v>0.20687182820636</v>
+        <v>0.08261220862299012</v>
       </c>
       <c r="D25">
-        <v>0.2400749622632219</v>
+        <v>0.08998134715716333</v>
       </c>
       <c r="E25">
-        <v>1.684987578645135</v>
+        <v>0.4962208113064719</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4029410281255821</v>
+        <v>0.4748168836042339</v>
       </c>
       <c r="H25">
-        <v>0.2971045100463243</v>
+        <v>0.610369331458287</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.40335924125344</v>
+        <v>0.4288935849608606</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.426302355713574</v>
+        <v>2.129279764739834</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_210/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3630829741045147</v>
+        <v>1.098600126121596</v>
       </c>
       <c r="C2">
-        <v>0.07436217548442414</v>
+        <v>0.181754135835007</v>
       </c>
       <c r="D2">
-        <v>0.07896829115506421</v>
+        <v>0.2002457884251498</v>
       </c>
       <c r="E2">
-        <v>0.417430411203398</v>
+        <v>1.388661673315383</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4730071219003236</v>
+        <v>0.3689523932000327</v>
       </c>
       <c r="H2">
-        <v>0.615445443545795</v>
+        <v>0.2912809923135598</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3611517495741055</v>
+        <v>1.183304167370352</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.135659816244896</v>
+        <v>1.341440939047004</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3199292133546692</v>
+        <v>0.9558017504823795</v>
       </c>
       <c r="C3">
-        <v>0.06872356251116685</v>
+        <v>0.1647647460875135</v>
       </c>
       <c r="D3">
-        <v>0.07157345869859455</v>
+        <v>0.1736436906744814</v>
       </c>
       <c r="E3">
-        <v>0.3642290642159907</v>
+        <v>1.193246483522003</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4725992718885834</v>
+        <v>0.3484991929836809</v>
       </c>
       <c r="H3">
-        <v>0.6195510693863042</v>
+        <v>0.2888185489360566</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3150789838560968</v>
+        <v>1.034686846432066</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.143091536191079</v>
+        <v>1.292488454187321</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2934177868623919</v>
+        <v>0.8683319218894781</v>
       </c>
       <c r="C4">
-        <v>0.06523826926432719</v>
+        <v>0.1543358275870048</v>
       </c>
       <c r="D4">
-        <v>0.06706671304205258</v>
+        <v>0.1574665858462794</v>
       </c>
       <c r="E4">
-        <v>0.3316472113900346</v>
+        <v>1.075343615393635</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4727501874685984</v>
+        <v>0.3370734073175896</v>
       </c>
       <c r="H4">
-        <v>0.6223997372522518</v>
+        <v>0.2879772282615534</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2867111767695292</v>
+        <v>0.9435629969313766</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.14918138829654</v>
+        <v>1.266226088876394</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2826108945052965</v>
+        <v>0.8327230021461673</v>
       </c>
       <c r="C5">
-        <v>0.06381222610910697</v>
+        <v>0.1500848256511915</v>
       </c>
       <c r="D5">
-        <v>0.06523865918410365</v>
+        <v>0.1509087795255226</v>
       </c>
       <c r="E5">
-        <v>0.3183893663237711</v>
+        <v>1.027742210252299</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4729122734776752</v>
+        <v>0.3326826592365251</v>
       </c>
       <c r="H5">
-        <v>0.6236429589054353</v>
+        <v>0.2877945064873728</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.275131698461621</v>
+        <v>0.9064445904844547</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.152046125000766</v>
+        <v>1.256419095871891</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2808162344049947</v>
+        <v>0.8268118579030954</v>
       </c>
       <c r="C6">
-        <v>0.06357508694452463</v>
+        <v>0.1493788318405649</v>
       </c>
       <c r="D6">
-        <v>0.06493562464811475</v>
+        <v>0.149821806075721</v>
       </c>
       <c r="E6">
-        <v>0.3161890440252222</v>
+        <v>1.019862723691162</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4729452531881009</v>
+        <v>0.331969059641537</v>
       </c>
       <c r="H6">
-        <v>0.6238543678727595</v>
+        <v>0.2877735977117055</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2732077795866417</v>
+        <v>0.9002815622348237</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.152544924433158</v>
+        <v>1.254843057578228</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2932720539607487</v>
+        <v>0.8678515641837805</v>
       </c>
       <c r="C7">
-        <v>0.06521906037207259</v>
+        <v>0.1542785039448944</v>
       </c>
       <c r="D7">
-        <v>0.0670420249207524</v>
+        <v>0.1573780115889747</v>
       </c>
       <c r="E7">
-        <v>0.3314683344940335</v>
+        <v>1.074699944099194</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4727519665891009</v>
+        <v>0.3370131425765592</v>
       </c>
       <c r="H7">
-        <v>0.622416170359493</v>
+        <v>0.287974126547212</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2865550896443096</v>
+        <v>0.9430623645487515</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.149218473215967</v>
+        <v>1.266090279397162</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3482069005472965</v>
+        <v>1.049309365907959</v>
       </c>
       <c r="C8">
-        <v>0.07242282701233194</v>
+        <v>0.1758945159011773</v>
       </c>
       <c r="D8">
-        <v>0.07641155650675557</v>
+        <v>0.1910378159096098</v>
       </c>
       <c r="E8">
-        <v>0.3990681778041392</v>
+        <v>1.320800737382058</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4727829957343914</v>
+        <v>0.3616529814134282</v>
       </c>
       <c r="H8">
-        <v>0.616792991875343</v>
+        <v>0.2902874620300082</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3452825197934715</v>
+        <v>1.132023844438521</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.137904886765</v>
+        <v>1.323737824729307</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4558013648214683</v>
+        <v>1.407640844752365</v>
       </c>
       <c r="C9">
-        <v>0.08636336574257086</v>
+        <v>0.2183951926071472</v>
       </c>
       <c r="D9">
-        <v>0.09505346380970536</v>
+        <v>0.258526787335029</v>
       </c>
       <c r="E9">
-        <v>0.5323758305734856</v>
+        <v>1.823859703704031</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4760440772631114</v>
+        <v>0.4199017605700561</v>
       </c>
       <c r="H9">
-        <v>0.6083699095820094</v>
+        <v>0.3005579014484567</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4598048714981928</v>
+        <v>1.504430793776692</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.127873202394539</v>
+        <v>1.469760025031974</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5347582878139292</v>
+        <v>1.673713108577971</v>
       </c>
       <c r="C10">
-        <v>0.09649005007750588</v>
+        <v>0.2498308921731223</v>
       </c>
       <c r="D10">
-        <v>0.1089157844950819</v>
+        <v>0.3093750142090812</v>
       </c>
       <c r="E10">
-        <v>0.6308879885692988</v>
+        <v>2.212048277205994</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4804139600839932</v>
+        <v>0.4701753759088518</v>
       </c>
       <c r="H10">
-        <v>0.6037735254232359</v>
+        <v>0.3122218059270665</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5435405329928358</v>
+        <v>1.780466899902962</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.127971385348189</v>
+        <v>1.601471187896323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5706557351390416</v>
+        <v>1.795683340191118</v>
       </c>
       <c r="C11">
-        <v>0.1010715211841386</v>
+        <v>0.2642134130507259</v>
       </c>
       <c r="D11">
-        <v>0.1152588159029051</v>
+        <v>0.3328691276935842</v>
       </c>
       <c r="E11">
-        <v>0.6758536141595357</v>
+        <v>2.394250191954697</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4828355917475875</v>
+        <v>0.4950204084424996</v>
       </c>
       <c r="H11">
-        <v>0.6020292518516044</v>
+        <v>0.3185753780197444</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5815442734934493</v>
+        <v>1.906892410316885</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.129650699848781</v>
+        <v>1.667758530844168</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5842458832802322</v>
+        <v>1.842033259140635</v>
       </c>
       <c r="C12">
-        <v>0.102802729498876</v>
+        <v>0.2696748446903854</v>
       </c>
       <c r="D12">
-        <v>0.1176660942419971</v>
+        <v>0.3418258217631802</v>
       </c>
       <c r="E12">
-        <v>0.6929046983389213</v>
+        <v>2.464202384976119</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4838153600685331</v>
+        <v>0.5047450440116421</v>
       </c>
       <c r="H12">
-        <v>0.6014186704977647</v>
+        <v>0.321146135364117</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5959222861862656</v>
+        <v>1.954918801752683</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.130522673439941</v>
+        <v>1.69387447579274</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.58131916237366</v>
+        <v>1.832043269220151</v>
       </c>
       <c r="C13">
-        <v>0.1024300482763891</v>
+        <v>0.2684979010816022</v>
       </c>
       <c r="D13">
-        <v>0.1171474077689538</v>
+        <v>0.3398940384666531</v>
       </c>
       <c r="E13">
-        <v>0.6892313659905085</v>
+        <v>2.449091817238909</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4836015526562534</v>
+        <v>0.5026360508734768</v>
       </c>
       <c r="H13">
-        <v>0.6015479477022723</v>
+        <v>0.3205849071277669</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5928263182657929</v>
+        <v>1.944568217945402</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.130324363934818</v>
+        <v>1.688203158642523</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5717738764899707</v>
+        <v>1.799493148188134</v>
       </c>
       <c r="C14">
-        <v>0.1012140231957375</v>
+        <v>0.2646624060823939</v>
       </c>
       <c r="D14">
-        <v>0.1154567577755472</v>
+        <v>0.3336047511571678</v>
       </c>
       <c r="E14">
-        <v>0.6772559346362073</v>
+        <v>2.399985113244597</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4829149381373554</v>
+        <v>0.49581392331595</v>
       </c>
       <c r="H14">
-        <v>0.6019780176211356</v>
+        <v>0.3187834869841595</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5827274283395525</v>
+        <v>1.910840352866359</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.129717701078221</v>
+        <v>1.66988617920228</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5659266511758574</v>
+        <v>1.779577301728523</v>
       </c>
       <c r="C15">
-        <v>0.1004686894011257</v>
+        <v>0.2623151217246971</v>
       </c>
       <c r="D15">
-        <v>0.1144218770734682</v>
+        <v>0.3297604351697316</v>
       </c>
       <c r="E15">
-        <v>0.6699237591827654</v>
+        <v>2.370035125848418</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4825025498605839</v>
+        <v>0.4916773856948566</v>
       </c>
       <c r="H15">
-        <v>0.6022479538493428</v>
+        <v>0.3177019702080344</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5765398350100668</v>
+        <v>1.89020173420343</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.129376873224231</v>
+        <v>1.658801678601492</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5324118512309326</v>
+        <v>1.665763193385231</v>
       </c>
       <c r="C16">
-        <v>0.09619012686701467</v>
+        <v>0.2488928859199859</v>
       </c>
       <c r="D16">
-        <v>0.1085019960520128</v>
+        <v>0.3078475734711077</v>
       </c>
       <c r="E16">
-        <v>0.6279525841367786</v>
+        <v>2.200266227112778</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4802644610712292</v>
+        <v>0.4685941345803712</v>
       </c>
       <c r="H16">
-        <v>0.6038945008637739</v>
+        <v>0.3118288445908917</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5410550831640819</v>
+        <v>1.772224303420046</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.127894616357821</v>
+        <v>1.597275539376909</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.511846014943302</v>
+        <v>1.596200098957667</v>
       </c>
       <c r="C17">
-        <v>0.09355886045817385</v>
+        <v>0.2406820520767923</v>
       </c>
       <c r="D17">
-        <v>0.1048798087435756</v>
+        <v>0.2945030480204878</v>
       </c>
       <c r="E17">
-        <v>0.6022447701547549</v>
+        <v>2.097656485279416</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4790028274480136</v>
+        <v>0.4549612603784823</v>
       </c>
       <c r="H17">
-        <v>0.6049934519980127</v>
+        <v>0.3085038386629719</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5192634184252825</v>
+        <v>1.7000876387294</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.127404678651146</v>
+        <v>1.561230017703707</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5000151940395767</v>
+        <v>1.556275178709114</v>
       </c>
       <c r="C18">
-        <v>0.09204305703411819</v>
+        <v>0.2359669255347541</v>
       </c>
       <c r="D18">
-        <v>0.1027999048679504</v>
+        <v>0.2868612934976085</v>
       </c>
       <c r="E18">
-        <v>0.587472513699268</v>
+        <v>2.039156434120784</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4783179732380916</v>
+        <v>0.4473038080488863</v>
       </c>
       <c r="H18">
-        <v>0.6056581620089361</v>
+        <v>0.3066890649406986</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5067211740253583</v>
+        <v>1.65867515538946</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.127276680936063</v>
+        <v>1.541090872486421</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4960091709081382</v>
+        <v>1.542771226485314</v>
       </c>
       <c r="C19">
-        <v>0.09152942739541459</v>
+        <v>0.2343716642869964</v>
       </c>
       <c r="D19">
-        <v>0.1020962835524131</v>
+        <v>0.2842794819826366</v>
       </c>
       <c r="E19">
-        <v>0.5824732676390596</v>
+        <v>2.019434105404827</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4780930900571434</v>
+        <v>0.44474176234975</v>
       </c>
       <c r="H19">
-        <v>0.6058888215946467</v>
+        <v>0.3060909812450774</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5024731836701903</v>
+        <v>1.644666271379265</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.127259728469824</v>
+        <v>1.534371161460371</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5140354831351885</v>
+        <v>1.603596118979965</v>
       </c>
       <c r="C20">
-        <v>0.09383920891168884</v>
+        <v>0.241555307819965</v>
       </c>
       <c r="D20">
-        <v>0.1052650364131011</v>
+        <v>0.2959200572054783</v>
       </c>
       <c r="E20">
-        <v>0.6049799289325648</v>
+        <v>2.108524798216934</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4791329047051676</v>
+        <v>0.4563932546279119</v>
       </c>
       <c r="H20">
-        <v>0.6048730898257872</v>
+        <v>0.3088475833160089</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5215840365069937</v>
+        <v>1.707758373599574</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.127440908283091</v>
+        <v>1.565005040979031</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5745776555123143</v>
+        <v>1.809049259575829</v>
       </c>
       <c r="C21">
-        <v>0.1015713000860927</v>
+        <v>0.265788546826883</v>
       </c>
       <c r="D21">
-        <v>0.1159531986243394</v>
+        <v>0.3354503739729466</v>
       </c>
       <c r="E21">
-        <v>0.6807727553818381</v>
+        <v>2.414381705734215</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.483114907475553</v>
+        <v>0.4978088883040641</v>
       </c>
       <c r="H21">
-        <v>0.6018503396572612</v>
+        <v>0.3193080155160288</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5856940789072951</v>
+        <v>1.920742680692257</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.129889478310474</v>
+        <v>1.675237960082796</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6141252102490853</v>
+        <v>1.94428679849949</v>
       </c>
       <c r="C22">
-        <v>0.1066030972092591</v>
+        <v>0.281716069052564</v>
       </c>
       <c r="D22">
-        <v>0.1229694767439042</v>
+        <v>0.3616394615520733</v>
       </c>
       <c r="E22">
-        <v>0.7304459901275067</v>
+        <v>2.619934383864361</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.48608330043065</v>
+        <v>0.5267377505077917</v>
       </c>
       <c r="H22">
-        <v>0.6001659122755143</v>
+        <v>0.3271126761146377</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6275166423982341</v>
+        <v>2.060840545543783</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.132866124336061</v>
+        <v>1.753246782289978</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5930199517223116</v>
+        <v>1.872009848767561</v>
       </c>
       <c r="C23">
-        <v>0.1039195292049726</v>
+        <v>0.2732058697767741</v>
       </c>
       <c r="D23">
-        <v>0.1192219286517258</v>
+        <v>0.3476267333855247</v>
       </c>
       <c r="E23">
-        <v>0.7039212260471004</v>
+        <v>2.509654971310852</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4844654067442065</v>
+        <v>0.5111160333548241</v>
       </c>
       <c r="H23">
-        <v>0.6010382558783789</v>
+        <v>0.3228535485720982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.60520237425294</v>
+        <v>1.985975004029029</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.131151166190875</v>
+        <v>1.71103117025288</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5130456471055993</v>
+        <v>1.600252169161223</v>
       </c>
       <c r="C24">
-        <v>0.09371247288144957</v>
+        <v>0.2411604923471202</v>
       </c>
       <c r="D24">
-        <v>0.1050908670735708</v>
+        <v>0.295279333895067</v>
       </c>
       <c r="E24">
-        <v>0.6037433404252397</v>
+        <v>2.103609713563642</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4790739707222684</v>
+        <v>0.4557452909349848</v>
       </c>
       <c r="H24">
-        <v>0.604927403057971</v>
+        <v>0.3086918758497319</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5205349284145484</v>
+        <v>1.704290250098239</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.127424050237522</v>
+        <v>1.563296541526029</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4267096537429893</v>
+        <v>1.310309638107441</v>
       </c>
       <c r="C25">
-        <v>0.08261220862299012</v>
+        <v>0.2068718282062747</v>
       </c>
       <c r="D25">
-        <v>0.08998134715716333</v>
+        <v>0.2400749622632219</v>
       </c>
       <c r="E25">
-        <v>0.4962208113064719</v>
+        <v>1.684987578645121</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4748168836042339</v>
+        <v>0.4029410281255821</v>
       </c>
       <c r="H25">
-        <v>0.610369331458287</v>
+        <v>0.2971045100463101</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4288935849608606</v>
+        <v>1.403359241253412</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.129279764739834</v>
+        <v>1.426302355713517</v>
       </c>
     </row>
   </sheetData>
